--- a/Model/BayesLSTM/Multivariate_monthly/result/Manufacturing/AUS.xlsx
+++ b/Model/BayesLSTM/Multivariate_monthly/result/Manufacturing/AUS.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>9.902372360229492</v>
+        <v>7.983155727386475</v>
       </c>
       <c r="C2" t="n">
-        <v>7.598206996917725</v>
+        <v>5.844675064086914</v>
       </c>
       <c r="D2" t="n">
-        <v>12.2065372467041</v>
+        <v>10.12163639068604</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>10.64525127410889</v>
+        <v>6.977530479431152</v>
       </c>
       <c r="C3" t="n">
-        <v>8.291358947753906</v>
+        <v>5.043468475341797</v>
       </c>
       <c r="D3" t="n">
-        <v>12.99914360046387</v>
+        <v>8.911592483520508</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>10.08861446380615</v>
+        <v>6.619936943054199</v>
       </c>
       <c r="C4" t="n">
-        <v>8.258469581604004</v>
+        <v>4.825176239013672</v>
       </c>
       <c r="D4" t="n">
-        <v>11.9187593460083</v>
+        <v>8.414697647094727</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>10.14835929870605</v>
+        <v>6.675998687744141</v>
       </c>
       <c r="C5" t="n">
-        <v>8.020575523376465</v>
+        <v>4.806562423706055</v>
       </c>
       <c r="D5" t="n">
-        <v>12.27614307403564</v>
+        <v>8.545434951782227</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>10.98814487457275</v>
+        <v>6.930512428283691</v>
       </c>
       <c r="C6" t="n">
-        <v>8.991066932678223</v>
+        <v>3.812213897705078</v>
       </c>
       <c r="D6" t="n">
-        <v>12.98522281646729</v>
+        <v>10.0488109588623</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>9.801403045654297</v>
+        <v>7.116546630859375</v>
       </c>
       <c r="C7" t="n">
-        <v>8.281167984008789</v>
+        <v>4.156453132629395</v>
       </c>
       <c r="D7" t="n">
-        <v>11.3216381072998</v>
+        <v>10.07664012908936</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>10.16403007507324</v>
+        <v>7.220035552978516</v>
       </c>
       <c r="C8" t="n">
-        <v>7.421459197998047</v>
+        <v>4.179756164550781</v>
       </c>
       <c r="D8" t="n">
-        <v>12.90660095214844</v>
+        <v>10.26031494140625</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>9.999357223510742</v>
+        <v>6.24928092956543</v>
       </c>
       <c r="C9" t="n">
-        <v>7.123905181884766</v>
+        <v>4.017094612121582</v>
       </c>
       <c r="D9" t="n">
-        <v>12.87480926513672</v>
+        <v>8.481467247009277</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>9.958168029785156</v>
+        <v>6.733956813812256</v>
       </c>
       <c r="C10" t="n">
-        <v>7.54386043548584</v>
+        <v>4.247396469116211</v>
       </c>
       <c r="D10" t="n">
-        <v>12.37247562408447</v>
+        <v>9.220517158508301</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>10.02451705932617</v>
+        <v>7.42815113067627</v>
       </c>
       <c r="C11" t="n">
-        <v>8.097712516784668</v>
+        <v>4.985132217407227</v>
       </c>
       <c r="D11" t="n">
-        <v>11.95132160186768</v>
+        <v>9.871170043945312</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>10.43424701690674</v>
+        <v>6.587300777435303</v>
       </c>
       <c r="C12" t="n">
-        <v>7.016996383666992</v>
+        <v>4.764808177947998</v>
       </c>
       <c r="D12" t="n">
-        <v>13.85149765014648</v>
+        <v>8.409793853759766</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>9.409640312194824</v>
+        <v>6.843752384185791</v>
       </c>
       <c r="C13" t="n">
-        <v>7.50052547454834</v>
+        <v>4.93364953994751</v>
       </c>
       <c r="D13" t="n">
-        <v>11.31875514984131</v>
+        <v>8.753854751586914</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>10.5820198059082</v>
+        <v>6.71825647354126</v>
       </c>
       <c r="C14" t="n">
-        <v>9.121809959411621</v>
+        <v>4.629879951477051</v>
       </c>
       <c r="D14" t="n">
-        <v>12.04222965240479</v>
+        <v>8.806632995605469</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>10.31984519958496</v>
+        <v>6.528965950012207</v>
       </c>
       <c r="C15" t="n">
-        <v>7.571731567382812</v>
+        <v>4.943595886230469</v>
       </c>
       <c r="D15" t="n">
-        <v>13.06795883178711</v>
+        <v>8.114336013793945</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>10.62640476226807</v>
+        <v>6.56091833114624</v>
       </c>
       <c r="C16" t="n">
-        <v>8.969915390014648</v>
+        <v>4.342836380004883</v>
       </c>
       <c r="D16" t="n">
-        <v>12.28289413452148</v>
+        <v>8.779000282287598</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>9.460713386535645</v>
+        <v>6.067914009094238</v>
       </c>
       <c r="C17" t="n">
-        <v>6.484815120697021</v>
+        <v>4.723633766174316</v>
       </c>
       <c r="D17" t="n">
-        <v>12.43661117553711</v>
+        <v>7.41219425201416</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>10.0738468170166</v>
+        <v>6.482786655426025</v>
       </c>
       <c r="C18" t="n">
-        <v>7.726935386657715</v>
+        <v>4.319422721862793</v>
       </c>
       <c r="D18" t="n">
-        <v>12.42075824737549</v>
+        <v>8.646150588989258</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>9.731684684753418</v>
+        <v>6.459298610687256</v>
       </c>
       <c r="C19" t="n">
-        <v>7.73054313659668</v>
+        <v>4.429506301879883</v>
       </c>
       <c r="D19" t="n">
-        <v>11.73282623291016</v>
+        <v>8.489090919494629</v>
       </c>
     </row>
     <row r="20">
@@ -715,83 +715,13 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>9.686745643615723</v>
+        <v>6.542782783508301</v>
       </c>
       <c r="C20" t="n">
-        <v>6.488368034362793</v>
+        <v>4.064301490783691</v>
       </c>
       <c r="D20" t="n">
-        <v>12.88512325286865</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B21" t="n">
-        <v>9.718992233276367</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8.331546783447266</v>
-      </c>
-      <c r="D21" t="n">
-        <v>11.10643768310547</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B22" t="n">
-        <v>9.603009223937988</v>
-      </c>
-      <c r="C22" t="n">
-        <v>7.748848438262939</v>
-      </c>
-      <c r="D22" t="n">
-        <v>11.4571704864502</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B23" t="n">
-        <v>9.954490661621094</v>
-      </c>
-      <c r="C23" t="n">
-        <v>8.04265022277832</v>
-      </c>
-      <c r="D23" t="n">
-        <v>11.86633110046387</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B24" t="n">
-        <v>9.539228439331055</v>
-      </c>
-      <c r="C24" t="n">
-        <v>7.256621360778809</v>
-      </c>
-      <c r="D24" t="n">
-        <v>11.8218355178833</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B25" t="n">
-        <v>9.586366653442383</v>
-      </c>
-      <c r="C25" t="n">
-        <v>7.430681705474854</v>
-      </c>
-      <c r="D25" t="n">
-        <v>11.74205207824707</v>
+        <v>9.02126407623291</v>
       </c>
     </row>
   </sheetData>
@@ -837,72 +767,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>9.973929023742675</v>
+        <v>6.89608097076416</v>
       </c>
       <c r="C2" t="n">
-        <v>7.607036067347508</v>
+        <v>4.253155708312988</v>
       </c>
       <c r="D2" t="n">
-        <v>12.34082198013784</v>
+        <v>9.539006233215332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>9.207745742797851</v>
+        <v>5.976505279541016</v>
       </c>
       <c r="C3" t="n">
-        <v>7.912590686549754</v>
+        <v>4.646448135375977</v>
       </c>
       <c r="D3" t="n">
-        <v>10.50290079904595</v>
+        <v>7.306562423706055</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>7.939342069625854</v>
+        <v>6.357562065124512</v>
       </c>
       <c r="C4" t="n">
-        <v>5.672439045993835</v>
+        <v>4.152854919433594</v>
       </c>
       <c r="D4" t="n">
-        <v>10.20624509325787</v>
+        <v>8.56226921081543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>7.950724744796753</v>
+        <v>6.573544979095459</v>
       </c>
       <c r="C5" t="n">
-        <v>6.503676685193372</v>
+        <v>3.676908731460571</v>
       </c>
       <c r="D5" t="n">
-        <v>9.397772804400134</v>
+        <v>9.470181465148926</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>10.63104991912842</v>
+        <v>6.505204200744629</v>
       </c>
       <c r="C6" t="n">
-        <v>9.312332389141954</v>
+        <v>4.77204704284668</v>
       </c>
       <c r="D6" t="n">
-        <v>11.94976744911488</v>
+        <v>8.238361358642578</v>
       </c>
     </row>
   </sheetData>
@@ -951,13 +881,13 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>12.58809947967529</v>
+        <v>11.50166988372803</v>
       </c>
       <c r="C2" t="n">
-        <v>10.46962928771973</v>
+        <v>9.826959609985352</v>
       </c>
       <c r="D2" t="n">
-        <v>14.70656967163086</v>
+        <v>13.1763801574707</v>
       </c>
     </row>
     <row r="3">
@@ -965,13 +895,13 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>12.30608081817627</v>
+        <v>11.04420757293701</v>
       </c>
       <c r="C3" t="n">
-        <v>10.17997360229492</v>
+        <v>9.615989685058594</v>
       </c>
       <c r="D3" t="n">
-        <v>14.43218803405762</v>
+        <v>12.47242546081543</v>
       </c>
     </row>
     <row r="4">
@@ -979,13 +909,13 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>12.71377277374268</v>
+        <v>11.09955501556396</v>
       </c>
       <c r="C4" t="n">
-        <v>10.88355159759521</v>
+        <v>9.142803192138672</v>
       </c>
       <c r="D4" t="n">
-        <v>14.54399394989014</v>
+        <v>13.05630683898926</v>
       </c>
     </row>
     <row r="5">
@@ -993,13 +923,13 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>12.0854549407959</v>
+        <v>11.35909843444824</v>
       </c>
       <c r="C5" t="n">
-        <v>10.08006477355957</v>
+        <v>9.395523071289062</v>
       </c>
       <c r="D5" t="n">
-        <v>14.09084510803223</v>
+        <v>13.32267379760742</v>
       </c>
     </row>
     <row r="6">
@@ -1007,13 +937,13 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>12.50396537780762</v>
+        <v>11.25899314880371</v>
       </c>
       <c r="C6" t="n">
-        <v>10.48038673400879</v>
+        <v>9.877285003662109</v>
       </c>
       <c r="D6" t="n">
-        <v>14.52754402160645</v>
+        <v>12.64070129394531</v>
       </c>
     </row>
     <row r="7">
@@ -1021,13 +951,13 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>12.67162895202637</v>
+        <v>11.18146991729736</v>
       </c>
       <c r="C7" t="n">
-        <v>10.62675285339355</v>
+        <v>9.748736381530762</v>
       </c>
       <c r="D7" t="n">
-        <v>14.71650505065918</v>
+        <v>12.61420345306396</v>
       </c>
     </row>
     <row r="8">
@@ -1035,13 +965,13 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>12.49125480651855</v>
+        <v>10.80160713195801</v>
       </c>
       <c r="C8" t="n">
-        <v>8.792500495910645</v>
+        <v>9.292625427246094</v>
       </c>
       <c r="D8" t="n">
-        <v>16.19000816345215</v>
+        <v>12.31058883666992</v>
       </c>
     </row>
     <row r="9">
@@ -1049,13 +979,13 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>12.54331874847412</v>
+        <v>11.14262294769287</v>
       </c>
       <c r="C9" t="n">
-        <v>10.6670036315918</v>
+        <v>9.875398635864258</v>
       </c>
       <c r="D9" t="n">
-        <v>14.41963386535645</v>
+        <v>12.40984725952148</v>
       </c>
     </row>
     <row r="10">
@@ -1063,13 +993,13 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>12.76620674133301</v>
+        <v>11.56070518493652</v>
       </c>
       <c r="C10" t="n">
-        <v>10.82851600646973</v>
+        <v>9.733371734619141</v>
       </c>
       <c r="D10" t="n">
-        <v>14.70389747619629</v>
+        <v>13.38803863525391</v>
       </c>
     </row>
     <row r="11">
@@ -1077,13 +1007,13 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>12.57872295379639</v>
+        <v>11.04075908660889</v>
       </c>
       <c r="C11" t="n">
-        <v>9.589375495910645</v>
+        <v>10.10526752471924</v>
       </c>
       <c r="D11" t="n">
-        <v>15.56807041168213</v>
+        <v>11.97625064849854</v>
       </c>
     </row>
     <row r="12">
@@ -1091,13 +1021,13 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>12.35055828094482</v>
+        <v>10.76338577270508</v>
       </c>
       <c r="C12" t="n">
-        <v>10.14853191375732</v>
+        <v>9.154297828674316</v>
       </c>
       <c r="D12" t="n">
-        <v>14.55258464813232</v>
+        <v>12.37247371673584</v>
       </c>
     </row>
     <row r="13">
@@ -1105,13 +1035,13 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>12.91878986358643</v>
+        <v>11.24585151672363</v>
       </c>
       <c r="C13" t="n">
-        <v>11.03028297424316</v>
+        <v>9.908859252929688</v>
       </c>
       <c r="D13" t="n">
-        <v>14.80729675292969</v>
+        <v>12.58284378051758</v>
       </c>
     </row>
     <row r="14">
@@ -1119,13 +1049,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>12.50481224060059</v>
+        <v>11.13534736633301</v>
       </c>
       <c r="C14" t="n">
-        <v>10.5213794708252</v>
+        <v>9.509812355041504</v>
       </c>
       <c r="D14" t="n">
-        <v>14.48824501037598</v>
+        <v>12.76088237762451</v>
       </c>
     </row>
     <row r="15">
@@ -1133,13 +1063,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>13.25700855255127</v>
+        <v>11.17465972900391</v>
       </c>
       <c r="C15" t="n">
-        <v>12.123703956604</v>
+        <v>9.679400444030762</v>
       </c>
       <c r="D15" t="n">
-        <v>14.39031314849854</v>
+        <v>12.66991901397705</v>
       </c>
     </row>
     <row r="16">
@@ -1147,13 +1077,13 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>13.19333457946777</v>
+        <v>11.44719123840332</v>
       </c>
       <c r="C16" t="n">
-        <v>10.67961502075195</v>
+        <v>9.457847595214844</v>
       </c>
       <c r="D16" t="n">
-        <v>15.70705413818359</v>
+        <v>13.4365348815918</v>
       </c>
     </row>
     <row r="17">
@@ -1161,13 +1091,13 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>12.92855262756348</v>
+        <v>11.28652858734131</v>
       </c>
       <c r="C17" t="n">
-        <v>10.95068454742432</v>
+        <v>9.564352035522461</v>
       </c>
       <c r="D17" t="n">
-        <v>14.90642070770264</v>
+        <v>13.00870513916016</v>
       </c>
     </row>
     <row r="18">
@@ -1175,13 +1105,13 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>13.2700252532959</v>
+        <v>11.47403526306152</v>
       </c>
       <c r="C18" t="n">
-        <v>11.20205020904541</v>
+        <v>9.990342140197754</v>
       </c>
       <c r="D18" t="n">
-        <v>15.33800029754639</v>
+        <v>12.95772838592529</v>
       </c>
     </row>
     <row r="19">
@@ -1189,13 +1119,13 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>13.01728248596191</v>
+        <v>11.54667472839355</v>
       </c>
       <c r="C19" t="n">
-        <v>11.3412036895752</v>
+        <v>9.990655899047852</v>
       </c>
       <c r="D19" t="n">
-        <v>14.69336128234863</v>
+        <v>13.10269355773926</v>
       </c>
     </row>
     <row r="20">
@@ -1203,13 +1133,13 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>13.11562824249268</v>
+        <v>11.24993801116943</v>
       </c>
       <c r="C20" t="n">
-        <v>11.09128093719482</v>
+        <v>9.740693092346191</v>
       </c>
       <c r="D20" t="n">
-        <v>15.13997554779053</v>
+        <v>12.75918292999268</v>
       </c>
     </row>
     <row r="21">
@@ -1217,13 +1147,13 @@
         <v>2017</v>
       </c>
       <c r="B21" t="n">
-        <v>12.81354808807373</v>
+        <v>11.24377250671387</v>
       </c>
       <c r="C21" t="n">
-        <v>11.01126766204834</v>
+        <v>10.3449239730835</v>
       </c>
       <c r="D21" t="n">
-        <v>14.61582851409912</v>
+        <v>12.14262104034424</v>
       </c>
     </row>
     <row r="22">
@@ -1231,13 +1161,13 @@
         <v>2018</v>
       </c>
       <c r="B22" t="n">
-        <v>13.18735027313232</v>
+        <v>11.29423522949219</v>
       </c>
       <c r="C22" t="n">
-        <v>10.98366355895996</v>
+        <v>9.135765075683594</v>
       </c>
       <c r="D22" t="n">
-        <v>15.39103698730469</v>
+        <v>13.45270538330078</v>
       </c>
     </row>
     <row r="23">
@@ -1245,13 +1175,13 @@
         <v>2019</v>
       </c>
       <c r="B23" t="n">
-        <v>12.89350700378418</v>
+        <v>11.003662109375</v>
       </c>
       <c r="C23" t="n">
-        <v>10.86336326599121</v>
+        <v>9.575395584106445</v>
       </c>
       <c r="D23" t="n">
-        <v>14.92365074157715</v>
+        <v>12.43192863464355</v>
       </c>
     </row>
     <row r="24">
@@ -1259,13 +1189,13 @@
         <v>2020</v>
       </c>
       <c r="B24" t="n">
-        <v>12.41281127929688</v>
+        <v>11.74165916442871</v>
       </c>
       <c r="C24" t="n">
-        <v>10.33851718902588</v>
+        <v>10.37349033355713</v>
       </c>
       <c r="D24" t="n">
-        <v>14.48710536956787</v>
+        <v>13.10982799530029</v>
       </c>
     </row>
     <row r="25">
@@ -1273,13 +1203,13 @@
         <v>2021</v>
       </c>
       <c r="B25" t="n">
-        <v>13.05954170227051</v>
+        <v>11.19711208343506</v>
       </c>
       <c r="C25" t="n">
-        <v>10.70958518981934</v>
+        <v>8.965652465820312</v>
       </c>
       <c r="D25" t="n">
-        <v>15.40949821472168</v>
+        <v>13.4285717010498</v>
       </c>
     </row>
   </sheetData>
@@ -1328,13 +1258,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>9.326691246032714</v>
+        <v>11.22809524536133</v>
       </c>
       <c r="C2" t="n">
-        <v>7.171863235664518</v>
+        <v>10.37220334324775</v>
       </c>
       <c r="D2" t="n">
-        <v>11.48151925640091</v>
+        <v>12.08398714747491</v>
       </c>
     </row>
     <row r="3">
@@ -1342,13 +1272,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>10.84674139022827</v>
+        <v>10.36670751571655</v>
       </c>
       <c r="C3" t="n">
-        <v>9.288343197019314</v>
+        <v>7.718854252698764</v>
       </c>
       <c r="D3" t="n">
-        <v>12.40513958343723</v>
+        <v>13.01456077873434</v>
       </c>
     </row>
     <row r="4">
@@ -1356,13 +1286,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>9.826384735107421</v>
+        <v>8.565320110321045</v>
       </c>
       <c r="C4" t="n">
-        <v>8.227996241331965</v>
+        <v>6.021948844308998</v>
       </c>
       <c r="D4" t="n">
-        <v>11.42477322888288</v>
+        <v>11.10869137633309</v>
       </c>
     </row>
     <row r="5">
@@ -1370,13 +1300,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>10.94506340026856</v>
+        <v>9.654896259307861</v>
       </c>
       <c r="C5" t="n">
-        <v>9.578298704157284</v>
+        <v>8.48481112043808</v>
       </c>
       <c r="D5" t="n">
-        <v>12.31182809637983</v>
+        <v>10.82498139817764</v>
       </c>
     </row>
     <row r="6">
@@ -1384,13 +1314,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>12.44984273910523</v>
+        <v>10.85666847229004</v>
       </c>
       <c r="C6" t="n">
-        <v>10.67816669301899</v>
+        <v>9.227574872168608</v>
       </c>
       <c r="D6" t="n">
-        <v>14.22151878519146</v>
+        <v>12.48576207241147</v>
       </c>
     </row>
   </sheetData>
